--- a/action_log.xlsx
+++ b/action_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="114">
   <si>
     <t>Timestamp</t>
   </si>
@@ -244,10 +244,46 @@
     <t>2025-09-06 08:56:30</t>
   </si>
   <si>
+    <t>2025-09-06 09:27:43</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:27:46</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:36:35</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:36:37</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:37:41</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:37:43</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:37:44</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:37:46</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:38:16</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:38:18</t>
+  </si>
+  <si>
+    <t>2025-09-06 09:38:58</t>
+  </si>
+  <si>
     <t>user1</t>
   </si>
   <si>
     <t>user2</t>
+  </si>
+  <si>
+    <t>user5</t>
   </si>
   <si>
     <t>Login Success</t>
@@ -677,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,10 +744,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -719,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -733,16 +769,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -750,19 +786,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -770,19 +806,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -790,19 +826,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -810,16 +846,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -827,13 +863,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -841,16 +877,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -858,19 +894,19 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -878,16 +914,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -895,10 +931,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -906,10 +942,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -917,13 +953,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -931,16 +967,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -948,19 +984,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -968,19 +1004,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -988,13 +1024,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1002,13 +1038,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1016,16 +1052,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,19 +1069,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,19 +1089,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,19 +1109,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,19 +1129,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,19 +1149,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,19 +1169,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,19 +1189,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,19 +1209,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,19 +1229,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,19 +1249,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,13 +1269,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1247,13 +1283,13 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1261,16 +1297,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1278,19 +1314,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1298,19 +1334,19 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1318,19 +1354,19 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1338,19 +1374,19 @@
         <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1358,19 +1394,19 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1378,19 +1414,19 @@
         <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1398,19 +1434,19 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1418,19 +1454,19 @@
         <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1438,16 +1474,16 @@
         <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1455,19 +1491,19 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1475,19 +1511,19 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1495,19 +1531,19 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1515,19 +1551,19 @@
         <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1535,19 +1571,19 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1555,19 +1591,19 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1575,19 +1611,19 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1595,19 +1631,19 @@
         <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1615,19 +1651,19 @@
         <v>45</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1635,19 +1671,19 @@
         <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1655,19 +1691,19 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1675,19 +1711,19 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1695,19 +1731,19 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1715,19 +1751,19 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1735,13 +1771,13 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1749,13 +1785,13 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1763,16 +1799,16 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1780,19 +1816,19 @@
         <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1800,19 +1836,19 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1820,19 +1856,19 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1840,19 +1876,19 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1860,19 +1896,19 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1880,19 +1916,19 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F66" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1900,19 +1936,19 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1920,13 +1956,13 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1934,13 +1970,13 @@
         <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1948,16 +1984,16 @@
         <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1965,13 +2001,13 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1979,10 +2015,10 @@
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1990,10 +2026,10 @@
         <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2001,13 +2037,13 @@
         <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2015,19 +2051,19 @@
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2035,13 +2071,13 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2049,13 +2085,13 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2063,19 +2099,19 @@
         <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E78" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2083,13 +2119,13 @@
         <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2097,13 +2133,13 @@
         <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2111,19 +2147,19 @@
         <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2131,16 +2167,16 @@
         <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2148,13 +2184,13 @@
         <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2162,13 +2198,13 @@
         <v>71</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2176,16 +2212,16 @@
         <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E85" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2193,19 +2229,19 @@
         <v>73</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E86" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2213,19 +2249,19 @@
         <v>73</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E87" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2233,19 +2269,19 @@
         <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E88" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2253,19 +2289,19 @@
         <v>74</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2273,19 +2309,178 @@
         <v>75</v>
       </c>
       <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" t="s">
+        <v>100</v>
+      </c>
+      <c r="F90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
         <v>77</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
         <v>81</v>
       </c>
-      <c r="D90" t="s">
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>86</v>
       </c>
-      <c r="E90" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="B102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" t="s">
         <v>92</v>
+      </c>
+      <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
